--- a/src/predicciones/holt_winters/producto_173.xlsx
+++ b/src/predicciones/holt_winters/producto_173.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,784 +404,2445 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.952557034485352</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44932</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2.972384481077889</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44933</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.212813313576409</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44934</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3.054868264689106</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44935</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8459463961957974</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44936</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.30591018524986</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44938</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.729689808787455</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44939</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.947589368225887</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44941</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2.967416814818424</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44943</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.207845647316943</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44944</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3.04990059842964</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44946</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.840978729936332</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44949</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1.300942518990394</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44951</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.72472214252799</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44953</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.942621701966421</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44955</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2.962449148558959</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44956</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.202877981057478</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44958</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3.044932932170175</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44959</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.836011063676867</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44962</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.295974852730929</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44963</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1.719754476268525</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44964</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.937654035706956</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44966</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2.957481482299494</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44967</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.197910314798013</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44969</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3.03996526591071</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44972</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.8310433974174016</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44973</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1.291007186471464</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44975</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>1.71478681000906</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44976</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1.932686369447491</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44978</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2.952513816040029</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44979</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>1.192942648538548</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44980</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3.034997599651244</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44981</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.8260757311579363</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44982</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>1.286039520211999</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44984</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>1.709819143749594</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44986</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>1.927718703188025</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44991</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2.947546149780563</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44993</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>1.187974982279082</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44994</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3.030029933391779</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>44995</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.821108064898471</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>44998</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>1.281071853952533</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45001</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>1.704851477490129</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45002</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>1.92275103692856</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45003</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2.942578483521098</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45004</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>1.183007316019617</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45005</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3.025062267132314</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45006</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.8161403986390057</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45007</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>1.276104187693068</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45008</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>1.699883811230663</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45009</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>1.917783370669095</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45010</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2.937610817261633</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45014</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>1.178039649760152</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45015</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3.020094600872849</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45018</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.8111727323795404</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45020</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>1.271136521433603</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45021</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>1.694916144971198</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45025</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>1.91281570440963</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45027</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2.932643151002167</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45030</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>1.173071983500686</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45033</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>3.015126934613384</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45034</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.8062050661200753</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45035</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>1.266168855174137</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45036</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>1.689948478711733</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45041</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>1.907848038150164</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45042</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2.927675484742702</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45050</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>1.168104317241221</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45052</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3.010159268353918</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45053</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.8012373998606099</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45055</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>1.261201188914672</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45057</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>1.684980812452268</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45060</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>1.902880371890699</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B73">
+        <v>2.922707818483237</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B74">
+        <v>1.163136650981756</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B75">
+        <v>3.005191602094452</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B76">
+        <v>0.7962697336011446</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B77">
+        <v>1.256233522655207</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B78">
+        <v>1.680013146192803</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B79">
+        <v>1.897912705631234</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B80">
+        <v>2.917740152223772</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B81">
+        <v>1.158168984722291</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B82">
+        <v>3.000223935834987</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B83">
+        <v>0.7913020673416793</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B84">
+        <v>1.251265856395742</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B85">
+        <v>1.675045479933337</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B86">
+        <v>1.892945039371768</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B87">
+        <v>2.912772485964306</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B88">
+        <v>1.153201318462825</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B89">
+        <v>2.995256269575522</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B90">
+        <v>0.786334401082214</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B91">
+        <v>1.246298190136276</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B92">
+        <v>1.670077813673872</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B93">
+        <v>1.887977373112303</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B94">
+        <v>2.907804819704841</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B95">
+        <v>1.14823365220336</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B96">
+        <v>2.990288603316057</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B97">
+        <v>0.7813667348227487</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B98">
+        <v>1.241330523876811</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B99">
+        <v>1.665110147414406</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B100">
+        <v>1.883009706852838</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B101">
+        <v>2.902837153445375</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B102">
+        <v>1.143265985943895</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B103">
+        <v>2.985320937056592</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B104">
+        <v>0.7763990685632833</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B105">
+        <v>1.236362857617346</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B106">
+        <v>1.660142481154941</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B107">
+        <v>1.878042040593373</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B108">
+        <v>2.89786948718591</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B109">
+        <v>1.138298319684429</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B110">
+        <v>2.980353270797126</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B111">
+        <v>0.7714314023038182</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B112">
+        <v>1.23139519135788</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B113">
+        <v>1.655174814895476</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B114">
+        <v>1.873074374333907</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B115">
+        <v>2.892901820926445</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B116">
+        <v>1.133330653424964</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B117">
+        <v>2.975385604537661</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B118">
+        <v>0.7664637360443529</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B119">
+        <v>1.226427525098415</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B120">
+        <v>1.650207148636011</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B121">
+        <v>1.868106708074442</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B122">
+        <v>2.88793415466698</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B123">
+        <v>1.128362987165499</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B124">
+        <v>2.970417938278196</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B125">
+        <v>0.7614960697848876</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B126">
+        <v>1.22145985883895</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B127">
+        <v>1.645239482376545</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B128">
+        <v>1.863139041814977</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B129">
+        <v>2.882966488407515</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B130">
+        <v>1.123395320906034</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B131">
+        <v>2.965450272018731</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B132">
+        <v>0.7565284035254223</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B133">
+        <v>1.216492192579485</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B134">
+        <v>1.64027181611708</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B135">
+        <v>1.858171375555511</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B136">
+        <v>2.877998822148049</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B137">
+        <v>1.118427654646568</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B138">
+        <v>2.960482605759265</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B139">
+        <v>0.751560737265957</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B140">
+        <v>1.211524526320019</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B141">
+        <v>1.635304149857615</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B142">
+        <v>1.853203709296046</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B143">
+        <v>2.873031155888584</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B144">
+        <v>1.113459988387103</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B145">
+        <v>2.9555149394998</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B146">
+        <v>0.7465930710064916</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B147">
+        <v>1.206556860060554</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B148">
+        <v>1.630336483598149</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B149">
+        <v>1.848236043036581</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B150">
+        <v>2.868063489629119</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B151">
+        <v>1.108492322127638</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B152">
+        <v>2.950547273240335</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B153">
+        <v>0.7416254047470265</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B154">
+        <v>1.201589193801089</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B155">
+        <v>1.625368817338684</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B156">
+        <v>1.843268376777116</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B157">
+        <v>2.863095823369653</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B158">
+        <v>1.103524655868172</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B159">
+        <v>2.94557960698087</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B160">
+        <v>0.7366577384875612</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B161">
+        <v>1.196621527541623</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B162">
+        <v>1.620401151079219</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B163">
+        <v>1.83830071051765</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B164">
+        <v>2.858128157110188</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B165">
+        <v>1.098556989608707</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B166">
+        <v>2.940611940721404</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B167">
+        <v>0.7316900722280959</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B168">
+        <v>1.191653861282158</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B169">
+        <v>1.615433484819754</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B170">
+        <v>1.833333044258185</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B171">
+        <v>2.853160490850723</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B172">
+        <v>1.093589323349242</v>
+      </c>
+      <c r="C172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B173">
+        <v>2.935644274461939</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B174">
+        <v>0.7267224059686306</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B175">
+        <v>1.186686195022693</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B176">
+        <v>1.610465818560288</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B177">
+        <v>1.82836537799872</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B178">
+        <v>2.848192824591258</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B179">
+        <v>1.088621657089777</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B180">
+        <v>2.930676608202473</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B181">
+        <v>0.7217547397091653</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B182">
+        <v>1.181718528763228</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B183">
+        <v>1.605498152300823</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B184">
+        <v>1.823397711739255</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B185">
+        <v>2.843225158331792</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B186">
+        <v>1.083653990830312</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B187">
+        <v>2.925708941943008</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B188">
+        <v>0.7167870734496999</v>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B189">
+        <v>1.176750862503762</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B190">
+        <v>1.600530486041358</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B191">
+        <v>1.818430045479789</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B192">
+        <v>2.838257492072327</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B193">
+        <v>1.078686324570846</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B194">
+        <v>2.920741275683543</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B195">
+        <v>0.7118194071902348</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B196">
+        <v>1.171783196244297</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B197">
+        <v>1.595562819781892</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B198">
+        <v>1.813462379220324</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B199">
+        <v>2.833289825812861</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B200">
+        <v>1.073718658311381</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B201">
+        <v>2.915773609424078</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B202">
+        <v>0.7068517409307695</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B203">
+        <v>1.166815529984832</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B204">
+        <v>1.590595153522427</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B205">
+        <v>1.808494712960859</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B206">
+        <v>2.828322159553396</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B207">
+        <v>1.068750992051915</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B208">
+        <v>2.910805943164612</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B209">
+        <v>0.7018840746713042</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B210">
+        <v>1.161847863725366</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B211">
+        <v>1.585627487262962</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B212">
+        <v>1.803527046701393</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B213">
+        <v>2.823354493293931</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B214">
+        <v>1.06378332579245</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B215">
+        <v>2.905838276905147</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B216">
+        <v>0.6969164084118389</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B217">
+        <v>1.156880197465901</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B218">
+        <v>1.580659821003497</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B219">
+        <v>1.798559380441928</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B220">
+        <v>2.818386827034466</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B221">
+        <v>1.058815659532985</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B222">
+        <v>2.900870610645682</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B223">
+        <v>0.6919487421523736</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
